--- a/main/StructureDefinition-bc-gender-identity-extension.xlsx
+++ b/main/StructureDefinition-bc-gender-identity-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T22:40:13+00:00</t>
+    <t>2024-10-07T22:34:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/StructureDefinition-bc-gender-identity-extension.xlsx
+++ b/main/StructureDefinition-bc-gender-identity-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T22:34:38+00:00</t>
+    <t>2024-10-11T20:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/StructureDefinition-bc-gender-identity-extension.xlsx
+++ b/main/StructureDefinition-bc-gender-identity-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T20:53:55+00:00</t>
+    <t>2024-10-11T23:14:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -322,10 +322,10 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Extension.extension:businessDates</t>
-  </si>
-  <si>
-    <t>businessDates</t>
+    <t>Extension.extension:genderIdentityEffectiveDates</t>
+  </si>
+  <si>
+    <t>genderIdentityEffectiveDates</t>
   </si>
   <si>
     <t>Y</t>
@@ -727,9 +727,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="33.73828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.1015625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.5703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="27.93359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>

--- a/main/StructureDefinition-bc-gender-identity-extension.xlsx
+++ b/main/StructureDefinition-bc-gender-identity-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T23:14:19+00:00</t>
+    <t>2024-10-11T23:23:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/StructureDefinition-bc-gender-identity-extension.xlsx
+++ b/main/StructureDefinition-bc-gender-identity-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T23:23:09+00:00</t>
+    <t>2024-10-11T23:26:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
